--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Adam9-Itgav.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Adam9-Itgav.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>10.36733066666667</v>
+        <v>10.088846</v>
       </c>
       <c r="H2">
-        <v>31.101992</v>
+        <v>30.266538</v>
       </c>
       <c r="I2">
-        <v>0.1169328841728879</v>
+        <v>0.1151445838515654</v>
       </c>
       <c r="J2">
-        <v>0.1169328841728879</v>
+        <v>0.1151445838515654</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>15.35884066666667</v>
+        <v>9.423852333333334</v>
       </c>
       <c r="N2">
-        <v>46.076522</v>
+        <v>28.271557</v>
       </c>
       <c r="O2">
-        <v>0.1012042817263867</v>
+        <v>0.06654336290212845</v>
       </c>
       <c r="P2">
-        <v>0.1012042817263867</v>
+        <v>0.06654336290212845</v>
       </c>
       <c r="Q2">
-        <v>159.2301798479805</v>
+        <v>95.07579491774068</v>
       </c>
       <c r="R2">
-        <v>1433.071618631824</v>
+        <v>855.682154259666</v>
       </c>
       <c r="S2">
-        <v>0.01183410855291189</v>
+        <v>0.007662107829449277</v>
       </c>
       <c r="T2">
-        <v>0.01183410855291189</v>
+        <v>0.007662107829449277</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>10.36733066666667</v>
+        <v>10.088846</v>
       </c>
       <c r="H3">
-        <v>31.101992</v>
+        <v>30.266538</v>
       </c>
       <c r="I3">
-        <v>0.1169328841728879</v>
+        <v>0.1151445838515654</v>
       </c>
       <c r="J3">
-        <v>0.1169328841728879</v>
+        <v>0.1151445838515654</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>151.777694</v>
       </c>
       <c r="O3">
-        <v>0.3333704853712116</v>
+        <v>0.3572423751649123</v>
       </c>
       <c r="P3">
-        <v>0.3333704853712116</v>
+        <v>0.3572423751649123</v>
       </c>
       <c r="Q3">
-        <v>524.5098471740498</v>
+        <v>510.4205936670414</v>
       </c>
       <c r="R3">
-        <v>4720.588624566449</v>
+        <v>4593.785343003372</v>
       </c>
       <c r="S3">
-        <v>0.03898197235257132</v>
+        <v>0.04113452462250864</v>
       </c>
       <c r="T3">
-        <v>0.03898197235257131</v>
+        <v>0.04113452462250864</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>10.36733066666667</v>
+        <v>10.088846</v>
       </c>
       <c r="H4">
-        <v>31.101992</v>
+        <v>30.266538</v>
       </c>
       <c r="I4">
-        <v>0.1169328841728879</v>
+        <v>0.1151445838515654</v>
       </c>
       <c r="J4">
-        <v>0.1169328841728879</v>
+        <v>0.1151445838515654</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>25.43221733333333</v>
+        <v>26.84076266666667</v>
       </c>
       <c r="N4">
-        <v>76.29665199999999</v>
+        <v>80.522288</v>
       </c>
       <c r="O4">
-        <v>0.1675809615966257</v>
+        <v>0.1895270158659356</v>
       </c>
       <c r="P4">
-        <v>0.1675809615966258</v>
+        <v>0.1895270158659356</v>
       </c>
       <c r="Q4">
-        <v>263.6642066811982</v>
+        <v>270.7923210665493</v>
       </c>
       <c r="R4">
-        <v>2372.977860130784</v>
+        <v>2437.130889598944</v>
       </c>
       <c r="S4">
-        <v>0.01959572517195942</v>
+        <v>0.02182300937051219</v>
       </c>
       <c r="T4">
-        <v>0.01959572517195942</v>
+        <v>0.02182300937051219</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>10.36733066666667</v>
+        <v>10.088846</v>
       </c>
       <c r="H5">
-        <v>31.101992</v>
+        <v>30.266538</v>
       </c>
       <c r="I5">
-        <v>0.1169328841728879</v>
+        <v>0.1151445838515654</v>
       </c>
       <c r="J5">
-        <v>0.1169328841728879</v>
+        <v>0.1151445838515654</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>60.37715666666667</v>
+        <v>54.762539</v>
       </c>
       <c r="N5">
-        <v>181.13147</v>
+        <v>164.287617</v>
       </c>
       <c r="O5">
-        <v>0.397844271305776</v>
+        <v>0.3866872460670236</v>
       </c>
       <c r="P5">
-        <v>0.397844271305776</v>
+        <v>0.3866872460670236</v>
       </c>
       <c r="Q5">
-        <v>625.9499478764712</v>
+        <v>552.4908225399939</v>
       </c>
       <c r="R5">
-        <v>5633.549530888241</v>
+        <v>4972.417402859945</v>
       </c>
       <c r="S5">
-        <v>0.04652107809544531</v>
+        <v>0.04452494202909531</v>
       </c>
       <c r="T5">
-        <v>0.0465210780954453</v>
+        <v>0.04452494202909531</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>113.744728</v>
       </c>
       <c r="I6">
-        <v>0.4276413904453658</v>
+        <v>0.4327250566572728</v>
       </c>
       <c r="J6">
-        <v>0.4276413904453658</v>
+        <v>0.4327250566572729</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>15.35884066666667</v>
+        <v>9.423852333333334</v>
       </c>
       <c r="N6">
-        <v>46.076522</v>
+        <v>28.271557</v>
       </c>
       <c r="O6">
-        <v>0.1012042817263867</v>
+        <v>0.06654336290212845</v>
       </c>
       <c r="P6">
-        <v>0.1012042817263867</v>
+        <v>0.06654336290212845</v>
       </c>
       <c r="Q6">
-        <v>582.3290513417796</v>
+        <v>357.3045067890552</v>
       </c>
       <c r="R6">
-        <v>5240.961462076017</v>
+        <v>3215.740561101496</v>
       </c>
       <c r="S6">
-        <v>0.04327913975649652</v>
+        <v>0.028794980481989</v>
       </c>
       <c r="T6">
-        <v>0.04327913975649652</v>
+        <v>0.02879498048198901</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>113.744728</v>
       </c>
       <c r="I7">
-        <v>0.4276413904453658</v>
+        <v>0.4327250566572728</v>
       </c>
       <c r="J7">
-        <v>0.4276413904453658</v>
+        <v>0.4327250566572729</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>151.777694</v>
       </c>
       <c r="O7">
-        <v>0.3333704853712116</v>
+        <v>0.3572423751649123</v>
       </c>
       <c r="P7">
-        <v>0.3333704853712116</v>
+        <v>0.3572423751649123</v>
       </c>
       <c r="Q7">
         <v>1918.21250227747</v>
@@ -883,10 +883,10 @@
         <v>17263.91252049723</v>
       </c>
       <c r="S7">
-        <v>0.1425630178975914</v>
+        <v>0.1545877270336154</v>
       </c>
       <c r="T7">
-        <v>0.1425630178975914</v>
+        <v>0.1545877270336154</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>113.744728</v>
       </c>
       <c r="I8">
-        <v>0.4276413904453658</v>
+        <v>0.4327250566572728</v>
       </c>
       <c r="J8">
-        <v>0.4276413904453658</v>
+        <v>0.4327250566572729</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>25.43221733333333</v>
+        <v>26.84076266666667</v>
       </c>
       <c r="N8">
-        <v>76.29665199999999</v>
+        <v>80.522288</v>
       </c>
       <c r="O8">
-        <v>0.1675809615966257</v>
+        <v>0.1895270158659356</v>
       </c>
       <c r="P8">
-        <v>0.1675809615966258</v>
+        <v>0.1895270158659356</v>
       </c>
       <c r="Q8">
-        <v>964.2602143389616</v>
+        <v>1017.665082944185</v>
       </c>
       <c r="R8">
-        <v>8678.341929050655</v>
+        <v>9158.985746497665</v>
       </c>
       <c r="S8">
-        <v>0.07166455542935249</v>
+        <v>0.08201308867867081</v>
       </c>
       <c r="T8">
-        <v>0.07166455542935249</v>
+        <v>0.08201308867867084</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>113.744728</v>
       </c>
       <c r="I9">
-        <v>0.4276413904453658</v>
+        <v>0.4327250566572728</v>
       </c>
       <c r="J9">
-        <v>0.4276413904453658</v>
+        <v>0.4327250566572729</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>60.37715666666667</v>
+        <v>54.762539</v>
       </c>
       <c r="N9">
-        <v>181.13147</v>
+        <v>164.287617</v>
       </c>
       <c r="O9">
-        <v>0.397844271305776</v>
+        <v>0.3866872460670236</v>
       </c>
       <c r="P9">
-        <v>0.397844271305776</v>
+        <v>0.3866872460670236</v>
       </c>
       <c r="Q9">
-        <v>2289.194420821129</v>
+        <v>2076.316701048131</v>
       </c>
       <c r="R9">
-        <v>20602.74978739016</v>
+        <v>18686.85030943318</v>
       </c>
       <c r="S9">
-        <v>0.1701346773619254</v>
+        <v>0.1673292604629976</v>
       </c>
       <c r="T9">
-        <v>0.1701346773619254</v>
+        <v>0.1673292604629976</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>13.65680433333333</v>
+        <v>15.69885766666667</v>
       </c>
       <c r="H10">
-        <v>40.97041299999999</v>
+        <v>47.096573</v>
       </c>
       <c r="I10">
-        <v>0.154034782011531</v>
+        <v>0.1791719719949428</v>
       </c>
       <c r="J10">
-        <v>0.154034782011531</v>
+        <v>0.1791719719949428</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>15.35884066666667</v>
+        <v>9.423852333333334</v>
       </c>
       <c r="N10">
-        <v>46.076522</v>
+        <v>28.271557</v>
       </c>
       <c r="O10">
-        <v>0.1012042817263867</v>
+        <v>0.06654336290212845</v>
       </c>
       <c r="P10">
-        <v>0.1012042817263867</v>
+        <v>0.06654336290212845</v>
       </c>
       <c r="Q10">
-        <v>209.7526817715095</v>
+        <v>147.9437164526846</v>
       </c>
       <c r="R10">
-        <v>1887.774135943586</v>
+        <v>1331.493448074161</v>
       </c>
       <c r="S10">
-        <v>0.01558897947435754</v>
+        <v>0.01192270555434947</v>
       </c>
       <c r="T10">
-        <v>0.01558897947435754</v>
+        <v>0.01192270555434947</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>13.65680433333333</v>
+        <v>15.69885766666667</v>
       </c>
       <c r="H11">
-        <v>40.97041299999999</v>
+        <v>47.096573</v>
       </c>
       <c r="I11">
-        <v>0.154034782011531</v>
+        <v>0.1791719719949428</v>
       </c>
       <c r="J11">
-        <v>0.154034782011531</v>
+        <v>0.1791719719949428</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>151.777694</v>
       </c>
       <c r="O11">
-        <v>0.3333704853712116</v>
+        <v>0.3572423751649123</v>
       </c>
       <c r="P11">
-        <v>0.3333704853712116</v>
+        <v>0.3572423751649123</v>
       </c>
       <c r="Q11">
-        <v>690.9327563741801</v>
+        <v>794.2454716936292</v>
       </c>
       <c r="R11">
-        <v>6218.394807367621</v>
+        <v>7148.209245242661</v>
       </c>
       <c r="S11">
-        <v>0.05135065004323286</v>
+        <v>0.06400782083845452</v>
       </c>
       <c r="T11">
-        <v>0.05135065004323285</v>
+        <v>0.06400782083845452</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>13.65680433333333</v>
+        <v>15.69885766666667</v>
       </c>
       <c r="H12">
-        <v>40.97041299999999</v>
+        <v>47.096573</v>
       </c>
       <c r="I12">
-        <v>0.154034782011531</v>
+        <v>0.1791719719949428</v>
       </c>
       <c r="J12">
-        <v>0.154034782011531</v>
+        <v>0.1791719719949428</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>25.43221733333333</v>
+        <v>26.84076266666667</v>
       </c>
       <c r="N12">
-        <v>76.29665199999999</v>
+        <v>80.522288</v>
       </c>
       <c r="O12">
-        <v>0.1675809615966257</v>
+        <v>0.1895270158659356</v>
       </c>
       <c r="P12">
-        <v>0.1675809615966258</v>
+        <v>0.1895270158659356</v>
       </c>
       <c r="Q12">
-        <v>347.3228158841417</v>
+        <v>421.3693127687804</v>
       </c>
       <c r="R12">
-        <v>3125.905342957275</v>
+        <v>3792.323814919024</v>
       </c>
       <c r="S12">
-        <v>0.025813296888819</v>
+        <v>0.03395792917901649</v>
       </c>
       <c r="T12">
-        <v>0.025813296888819</v>
+        <v>0.03395792917901649</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>13.65680433333333</v>
+        <v>15.69885766666667</v>
       </c>
       <c r="H13">
-        <v>40.97041299999999</v>
+        <v>47.096573</v>
       </c>
       <c r="I13">
-        <v>0.154034782011531</v>
+        <v>0.1791719719949428</v>
       </c>
       <c r="J13">
-        <v>0.154034782011531</v>
+        <v>0.1791719719949428</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>60.37715666666667</v>
+        <v>54.762539</v>
       </c>
       <c r="N13">
-        <v>181.13147</v>
+        <v>164.287617</v>
       </c>
       <c r="O13">
-        <v>0.397844271305776</v>
+        <v>0.3866872460670236</v>
       </c>
       <c r="P13">
-        <v>0.397844271305776</v>
+        <v>0.3866872460670236</v>
       </c>
       <c r="Q13">
-        <v>824.5590147996788</v>
+        <v>859.7093052262823</v>
       </c>
       <c r="R13">
-        <v>7421.031133197109</v>
+        <v>7737.38374703654</v>
       </c>
       <c r="S13">
-        <v>0.0612818556051216</v>
+        <v>0.06928351642312232</v>
       </c>
       <c r="T13">
-        <v>0.06128185560512159</v>
+        <v>0.06928351642312232</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>26.72147866666667</v>
+        <v>23.91632366666667</v>
       </c>
       <c r="H14">
-        <v>80.16443599999999</v>
+        <v>71.748971</v>
       </c>
       <c r="I14">
-        <v>0.3013909433702153</v>
+        <v>0.2729583874962189</v>
       </c>
       <c r="J14">
-        <v>0.3013909433702152</v>
+        <v>0.2729583874962189</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>15.35884066666667</v>
+        <v>9.423852333333334</v>
       </c>
       <c r="N14">
-        <v>46.076522</v>
+        <v>28.271557</v>
       </c>
       <c r="O14">
-        <v>0.1012042817263867</v>
+        <v>0.06654336290212845</v>
       </c>
       <c r="P14">
-        <v>0.1012042817263867</v>
+        <v>0.06654336290212845</v>
       </c>
       <c r="Q14">
-        <v>410.4109332190658</v>
+        <v>225.3839025908719</v>
       </c>
       <c r="R14">
-        <v>3693.698398971592</v>
+        <v>2028.455123317847</v>
       </c>
       <c r="S14">
-        <v>0.03050205394262072</v>
+        <v>0.0181635690363407</v>
       </c>
       <c r="T14">
-        <v>0.03050205394262072</v>
+        <v>0.0181635690363407</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>26.72147866666667</v>
+        <v>23.91632366666667</v>
       </c>
       <c r="H15">
-        <v>80.16443599999999</v>
+        <v>71.748971</v>
       </c>
       <c r="I15">
-        <v>0.3013909433702153</v>
+        <v>0.2729583874962189</v>
       </c>
       <c r="J15">
-        <v>0.3013909433702152</v>
+        <v>0.2729583874962189</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>151.777694</v>
       </c>
       <c r="O15">
-        <v>0.3333704853712116</v>
+        <v>0.3572423751649123</v>
       </c>
       <c r="P15">
-        <v>0.3333704853712116</v>
+        <v>0.3572423751649123</v>
       </c>
       <c r="Q15">
-        <v>1351.908137432287</v>
+        <v>1209.988151694764</v>
       </c>
       <c r="R15">
-        <v>12167.17323689058</v>
+        <v>10889.89336525287</v>
       </c>
       <c r="S15">
-        <v>0.100474845077816</v>
+        <v>0.09751230267033376</v>
       </c>
       <c r="T15">
-        <v>0.100474845077816</v>
+        <v>0.09751230267033376</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>26.72147866666667</v>
+        <v>23.91632366666667</v>
       </c>
       <c r="H16">
-        <v>80.16443599999999</v>
+        <v>71.748971</v>
       </c>
       <c r="I16">
-        <v>0.3013909433702153</v>
+        <v>0.2729583874962189</v>
       </c>
       <c r="J16">
-        <v>0.3013909433702152</v>
+        <v>0.2729583874962189</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>25.43221733333333</v>
+        <v>26.84076266666667</v>
       </c>
       <c r="N16">
-        <v>76.29665199999999</v>
+        <v>80.522288</v>
       </c>
       <c r="O16">
-        <v>0.1675809615966257</v>
+        <v>0.1895270158659356</v>
       </c>
       <c r="P16">
-        <v>0.1675809615966258</v>
+        <v>0.1895270158659356</v>
       </c>
       <c r="Q16">
-        <v>679.5864529186968</v>
+        <v>641.9323673961832</v>
       </c>
       <c r="R16">
-        <v>6116.278076268271</v>
+        <v>5777.391306565648</v>
       </c>
       <c r="S16">
-        <v>0.05050738410649485</v>
+        <v>0.05173298863773607</v>
       </c>
       <c r="T16">
-        <v>0.05050738410649485</v>
+        <v>0.05173298863773608</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>26.72147866666667</v>
+        <v>23.91632366666667</v>
       </c>
       <c r="H17">
-        <v>80.16443599999999</v>
+        <v>71.748971</v>
       </c>
       <c r="I17">
-        <v>0.3013909433702153</v>
+        <v>0.2729583874962189</v>
       </c>
       <c r="J17">
-        <v>0.3013909433702152</v>
+        <v>0.2729583874962189</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>60.37715666666667</v>
+        <v>54.762539</v>
       </c>
       <c r="N17">
-        <v>181.13147</v>
+        <v>164.287617</v>
       </c>
       <c r="O17">
-        <v>0.397844271305776</v>
+        <v>0.3866872460670236</v>
       </c>
       <c r="P17">
-        <v>0.397844271305776</v>
+        <v>0.3866872460670236</v>
       </c>
       <c r="Q17">
-        <v>1613.366903822325</v>
+        <v>1309.718607532456</v>
       </c>
       <c r="R17">
-        <v>14520.30213440092</v>
+        <v>11787.4674677921</v>
       </c>
       <c r="S17">
-        <v>0.1199066602432837</v>
+        <v>0.1055495271518084</v>
       </c>
       <c r="T17">
-        <v>0.1199066602432837</v>
+        <v>0.1055495271518084</v>
       </c>
     </row>
   </sheetData>
